--- a/DDAf_2023_Tableau_annexe_Tab18.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -3072,7 +3072,7 @@
         <v>17.155193642648701</v>
       </c>
       <c r="E77" s="41">
-        <v>0.12023410801176</v>
+        <v>0.12022410801176001</v>
       </c>
       <c r="F77" s="41">
         <v>33.533645651815299</v>

--- a/DDAf_2023_Tableau_annexe_Tab18.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819FC17C-4D3A-416E-B101-B7BCE125D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E8671A-AD7B-4C4A-B3EB-8E9DA40AAD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{2F7518BD-F95A-4769-BEA5-B60DB431A855}"/>
+    <workbookView xWindow="29940" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{B5EFA7EC-D19D-4896-A7AA-168E9825185E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD01781-45EC-4563-872D-B42A68B40BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80971CB-19DB-4FE3-A36C-B16F58D65935}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1966,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="20">
-        <v>44.792871152814399</v>
+        <v>45.025733623187897</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -2013,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="28">
-        <v>44.636045188239301</v>
+        <v>41.891955685351803</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -2060,7 +2060,7 @@
         <v>34</v>
       </c>
       <c r="O5" s="28">
-        <v>45.040888825467299</v>
+        <v>45.040888826404696</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.35">
@@ -2107,7 +2107,7 @@
         <v>16</v>
       </c>
       <c r="O6" s="28">
-        <v>45.8725166721403</v>
+        <v>44.345664757404002</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2154,7 +2154,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="28">
-        <v>9.5594264874568697</v>
+        <v>10.3727474306876</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2201,7 +2201,7 @@
         <v>26</v>
       </c>
       <c r="O8" s="28">
-        <v>40.571534823397897</v>
+        <v>40.5940552908055</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.35">
@@ -2248,7 +2248,7 @@
         <v>18</v>
       </c>
       <c r="O9" s="28">
-        <v>32.470831678476401</v>
+        <v>34.331492876482699</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2295,7 +2295,7 @@
         <v>147</v>
       </c>
       <c r="O10" s="28">
-        <v>31.193814062223499</v>
+        <v>31.193814062404901</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -2342,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="O11" s="28">
-        <v>54.5010008519195</v>
+        <v>52.951540056276201</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -2389,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="28">
-        <v>20.003677188074501</v>
+        <v>18.279911392911501</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -2436,7 +2436,7 @@
         <v>124</v>
       </c>
       <c r="O13" s="39">
-        <v>34.716158046341697</v>
+        <v>34.5944064075684</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2483,7 +2483,7 @@
         <v>12</v>
       </c>
       <c r="O14" s="28">
-        <v>7.4606338004530102</v>
+        <v>8.1227926531516701</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2530,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="O15" s="28">
-        <v>18.162348699407499</v>
+        <v>16.4416262007732</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="42" x14ac:dyDescent="0.35">
@@ -2577,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="O16" s="28">
-        <v>13.231574903385599</v>
+        <v>13.688864979750299</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2624,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="20">
-        <v>34.401117134836497</v>
+        <v>34.529957898005001</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -2671,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="O18" s="20">
-        <v>66.2703757270056</v>
+        <v>72.891877155626503</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2718,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="O19" s="28">
-        <v>39.527376992370897</v>
+        <v>39.553458604219401</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="42" x14ac:dyDescent="0.35">
@@ -2765,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="20">
-        <v>45.419403332502597</v>
+        <v>44.622731725259897</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -2812,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="O21" s="20">
-        <v>39.862226428640398</v>
+        <v>39.862196110500797</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2859,7 +2859,7 @@
         <v>11</v>
       </c>
       <c r="O22" s="28">
-        <v>15.694842956760199</v>
+        <v>15.309847129227901</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2906,7 +2906,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="39">
-        <v>33.032170662026097</v>
+        <v>33.056170556374198</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -2953,7 +2953,7 @@
         <v>9</v>
       </c>
       <c r="O24" s="28">
-        <v>9.6433581382237907</v>
+        <v>11.516798569849399</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -3000,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="O25" s="28">
-        <v>149.939648856069</v>
+        <v>149.939648857761</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="42" x14ac:dyDescent="0.35">
@@ -3047,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="28">
-        <v>38.332803386038499</v>
+        <v>38.753396744285503</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="42" x14ac:dyDescent="0.35">
@@ -3094,7 +3094,7 @@
         <v>32</v>
       </c>
       <c r="O27" s="28">
-        <v>8.5738254451512805</v>
+        <v>8.5738254450976097</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3141,7 +3141,7 @@
         <v>132</v>
       </c>
       <c r="O28" s="28">
-        <v>10.6995717922083</v>
+        <v>10.7162886540966</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -3188,7 +3188,7 @@
         <v>42</v>
       </c>
       <c r="O29" s="28">
-        <v>23.4693926254748</v>
+        <v>23.032116454966602</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="42" x14ac:dyDescent="0.35">
@@ -3235,7 +3235,7 @@
         <v>112</v>
       </c>
       <c r="O30" s="28">
-        <v>28.635882545604002</v>
+        <v>27.8335084103309</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3282,7 +3282,7 @@
         <v>49</v>
       </c>
       <c r="O31" s="28">
-        <v>19.065982944789599</v>
+        <v>19.064319772189801</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3329,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="O32" s="28">
-        <v>120.178646778526</v>
+        <v>120.178646783612</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -3376,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="O33" s="28">
-        <v>17.178050909806</v>
+        <v>17.178050909260499</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="28">
-        <v>81.035780749001901</v>
+        <v>71.500734394283</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -3470,7 +3470,7 @@
         <v>11</v>
       </c>
       <c r="O35" s="28">
-        <v>16.822679203181501</v>
+        <v>17.0172856140736</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -3517,7 +3517,7 @@
         <v>59</v>
       </c>
       <c r="O36" s="28">
-        <v>13.3399197022664</v>
+        <v>14.1751950000597</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3564,7 +3564,7 @@
         <v>20</v>
       </c>
       <c r="O37" s="28">
-        <v>14.3024181952253</v>
+        <v>14.385308686659201</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
@@ -3611,7 +3611,7 @@
         <v>138</v>
       </c>
       <c r="O38" s="39">
-        <v>14.830895694770399</v>
+        <v>14.6283437020997</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3658,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="O39" s="20">
-        <v>25.672662569768001</v>
+        <v>25.605455733878198</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3705,7 +3705,7 @@
         <v>151</v>
       </c>
       <c r="O40" s="28">
-        <v>10.557030768187101</v>
+        <v>10.5531691004687</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3799,7 +3799,7 @@
         <v>6</v>
       </c>
       <c r="O42" s="20">
-        <v>33.206979135730698</v>
+        <v>33.2069791354443</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3846,7 +3846,7 @@
         <v>87</v>
       </c>
       <c r="O43" s="28">
-        <v>32.985864624771601</v>
+        <v>32.985864623713397</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
@@ -3893,7 +3893,7 @@
         <v>144</v>
       </c>
       <c r="O44" s="28">
-        <v>42.212917027849102</v>
+        <v>42.439990494046803</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -3940,7 +3940,7 @@
         <v>132</v>
       </c>
       <c r="O45" s="39">
-        <v>18.816212082425501</v>
+        <v>18.783189127890399</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -3987,7 +3987,7 @@
         <v>12</v>
       </c>
       <c r="O46" s="28">
-        <v>23.970788358347001</v>
+        <v>23.482995586326499</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="28">
-        <v>31.302274108413499</v>
+        <v>29.4574859455408</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4081,7 +4081,7 @@
         <v>13</v>
       </c>
       <c r="O48" s="20">
-        <v>28.986910634530801</v>
+        <v>28.9751184139811</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -4128,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="O49" s="28">
-        <v>22.586551588184999</v>
+        <v>22.632864580266698</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4175,7 +4175,7 @@
         <v>21</v>
       </c>
       <c r="O50" s="28">
-        <v>8.6612706258221301</v>
+        <v>9.1788319187919996</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -4222,7 +4222,7 @@
         <v>13</v>
       </c>
       <c r="O51" s="28">
-        <v>30.146641210697201</v>
+        <v>30.1948244523951</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -4269,7 +4269,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="28">
-        <v>63.580054265265602</v>
+        <v>63.545103442808397</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -4316,7 +4316,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="28">
-        <v>18.015248912292702</v>
+        <v>19.4231713892963</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4363,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="O54" s="28">
-        <v>31.960004645592999</v>
+        <v>32.0125450422886</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="28">
-        <v>27.445228821986099</v>
+        <v>27.3971836887204</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4457,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="O56" s="28">
-        <v>14.050613433411201</v>
+        <v>15.496881969881301</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4504,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="O57" s="20">
-        <v>11.517781590861601</v>
+        <v>11.499661296247799</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4551,7 +4551,7 @@
         <v>56</v>
       </c>
       <c r="O58" s="28">
-        <v>23.161162427367302</v>
+        <v>23.373588354331201</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -4598,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="O59" s="28">
-        <v>21.6824426840613</v>
+        <v>26.864112802491</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
@@ -4645,7 +4645,7 @@
         <v>25</v>
       </c>
       <c r="O60" s="28">
-        <v>26.9419895612338</v>
+        <v>22.5931424248264</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -4690,7 +4690,7 @@
         <v>21</v>
       </c>
       <c r="O61" s="48">
-        <v>17.6965419029058</v>
+        <v>17.668744907026699</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -4735,7 +4735,7 @@
         <v>162</v>
       </c>
       <c r="O62" s="57">
-        <v>21.489119045123299</v>
+        <v>21.428809165303299</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4780,7 +4780,7 @@
         <v>389</v>
       </c>
       <c r="O63" s="65">
-        <v>28.814277842218701</v>
+        <v>29.074255902749801</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4825,7 +4825,7 @@
         <v>222</v>
       </c>
       <c r="O64" s="74">
-        <v>26.919654560318001</v>
+        <v>27.112143836084599</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -4870,7 +4870,7 @@
         <v>350</v>
       </c>
       <c r="O65" s="65">
-        <v>23.410453990255199</v>
+        <v>24.0965283884358</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -4915,7 +4915,7 @@
         <v>391</v>
       </c>
       <c r="O66" s="87">
-        <v>28.443535893161901</v>
+        <v>28.688994384145701</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -4960,7 +4960,7 @@
         <v>180</v>
       </c>
       <c r="O67" s="74">
-        <v>15.8226914207878</v>
+        <v>15.827399720297199</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -5005,7 +5005,7 @@
         <v>129</v>
       </c>
       <c r="O68" s="65">
-        <v>17.575823765812299</v>
+        <v>17.5819635585536</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -5050,7 +5050,7 @@
         <v>123</v>
       </c>
       <c r="O69" s="65">
-        <v>13.851326265611201</v>
+        <v>13.418753152565801</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5095,7 +5095,7 @@
         <v>10</v>
       </c>
       <c r="O70" s="65">
-        <v>36.600813785606398</v>
+        <v>36.685339214373897</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5140,7 +5140,7 @@
         <v>21</v>
       </c>
       <c r="O71" s="65">
-        <v>17.6965419029058</v>
+        <v>17.668744907026699</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -5185,7 +5185,7 @@
         <v>99</v>
       </c>
       <c r="O72" s="65">
-        <v>13.805923406794999</v>
+        <v>13.3876320778232</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5230,7 +5230,7 @@
         <v>133</v>
       </c>
       <c r="O73" s="65">
-        <v>32.460052104770398</v>
+        <v>32.443122353982901</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -5275,7 +5275,7 @@
         <v>73</v>
       </c>
       <c r="O74" s="65">
-        <v>30.437932494539901</v>
+        <v>30.495426343310001</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5320,7 @@
         <v>10</v>
       </c>
       <c r="O75" s="87">
-        <v>43.308849110552899</v>
+        <v>43.522693584562703</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -5365,7 +5365,7 @@
         <v>249</v>
       </c>
       <c r="O76" s="74">
-        <v>52.919892499025302</v>
+        <v>52.997166297673402</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5410,7 +5410,7 @@
         <v>155</v>
       </c>
       <c r="O77" s="65">
-        <v>21.5029138307757</v>
+        <v>21.190808658086699</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -5455,7 +5455,7 @@
         <v>394</v>
       </c>
       <c r="O78" s="65">
-        <v>50.500418379071803</v>
+        <v>50.405171963548</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5500,7 +5500,7 @@
         <v>370</v>
       </c>
       <c r="O79" s="87">
-        <v>29.915627161081002</v>
+        <v>30.026167846821199</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -5545,7 +5545,7 @@
         <v>8</v>
       </c>
       <c r="O80" s="74">
-        <v>20.9108828537717</v>
+        <v>20.986150259167299</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -5590,7 +5590,7 @@
         <v>114</v>
       </c>
       <c r="O81" s="65">
-        <v>35.116126893895498</v>
+        <v>37.656844581745602</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5635,7 +5635,7 @@
         <v>209</v>
       </c>
       <c r="O82" s="65">
-        <v>21.7153960047746</v>
+        <v>21.601179840296101</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5680,7 +5680,7 @@
         <v>398</v>
       </c>
       <c r="O83" s="87">
-        <v>28.2466114077585</v>
+        <v>28.295846675813898</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5725,7 +5725,7 @@
         <v>46</v>
       </c>
       <c r="O84" s="74">
-        <v>21.439943336380701</v>
+        <v>21.1779638950382</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5770,7 +5770,7 @@
         <v>68</v>
       </c>
       <c r="O85" s="65">
-        <v>8.2496911782415907</v>
+        <v>12.080169759101199</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -5815,7 +5815,7 @@
         <v>143</v>
       </c>
       <c r="O86" s="65">
-        <v>19.238210618353701</v>
+        <v>19.234074729172399</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -5860,7 +5860,7 @@
         <v>303</v>
       </c>
       <c r="O87" s="65">
-        <v>23.608491825541702</v>
+        <v>25.213955396743401</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5905,7 +5905,7 @@
         <v>120</v>
       </c>
       <c r="O88" s="65">
-        <v>32.364955203058699</v>
+        <v>32.2537412319464</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -5950,7 +5950,7 @@
         <v>360</v>
       </c>
       <c r="O89" s="65">
-        <v>26.526038238909599</v>
+        <v>26.486034597540002</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5995,7 +5995,7 @@
         <v>357</v>
       </c>
       <c r="O90" s="87">
-        <v>32.356046563277701</v>
+        <v>32.383493587139697</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -6040,7 +6040,7 @@
         <v>55</v>
       </c>
       <c r="O91" s="65">
-        <v>25.475042676762001</v>
+        <v>25.363513289198099</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -6085,7 +6085,7 @@
         <v>94</v>
       </c>
       <c r="O92" s="65">
-        <v>15.514039788078399</v>
+        <v>15.369241775483101</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -6130,7 +6130,7 @@
         <v>75</v>
       </c>
       <c r="O93" s="65">
-        <v>32.440655394114302</v>
+        <v>32.089359681950697</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -6175,7 +6175,7 @@
         <v>138</v>
       </c>
       <c r="O94" s="65">
-        <v>117.630529191443</v>
+        <v>117.52915593533599</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -6220,7 +6220,7 @@
         <v>43</v>
       </c>
       <c r="O95" s="65">
-        <v>21.1714109077956</v>
+        <v>20.347630778781198</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -6265,7 +6265,7 @@
         <v>108</v>
       </c>
       <c r="O96" s="65">
-        <v>31.5695553884775</v>
+        <v>31.3023002992424</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -6310,7 +6310,7 @@
         <v>47</v>
       </c>
       <c r="O97" s="74">
-        <v>19.936913271102899</v>
+        <v>19.850907550630101</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
@@ -6355,7 +6355,7 @@
         <v>132</v>
       </c>
       <c r="O98" s="87">
-        <v>14.8341905100767</v>
+        <v>21.334067301334301</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6620,11 +6620,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{55D4331E-DC38-4E47-A5D3-5760E4F3C38E}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2781E743-8D30-4149-89E6-B95120B10BB0}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{7553A979-2F89-4CCF-B591-7D4E09EFD049}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{2ABE6C5C-C4B0-47C5-B52A-0CAD5479671C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{1D00030A-9684-4086-A4A3-EB7C98F5B368}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4F532A6B-4214-4704-A467-881A45F1E9C4}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A142F564-3ED8-460A-93C7-1CE24B1C0D90}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{653ACD33-71FF-49CC-86BE-C160131074CA}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{7076DEB3-B94A-49E1-9D4C-CEAD86FF318E}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{7C681949-9DD5-4C85-8D82-6DBD602B75D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab18.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E8671A-AD7B-4C4A-B3EB-8E9DA40AAD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5755736A-9883-4D4D-A5CB-9343964D97A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{B5EFA7EC-D19D-4896-A7AA-168E9825185E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{575D784D-36F0-4B57-9B88-1B0966AE8679}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab18'!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -473,7 +473,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>Swedes, mangolds, fodder roots, hay, lucerne (alfalfa), clover, sainfoin, forage kale, lupines, vetches and similar forage products, whether or not in the form of pellets</t>
@@ -602,7 +602,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>Aircraft n.e.s. in heading no. 8801 (eg helicopters, aeroplanes); spacecraft (including satellites) and suborbital and spacecraft launch vehicles</t>
@@ -686,7 +686,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -857,7 +857,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 21 avril 2022).</t>
+    <t>Source : Calculs de l'auteur basés sur la BACI (Base de données sur le commerce international) rapportée au niveau des produits par CEPII (mise à jour le 01/02/2023).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80971CB-19DB-4FE3-A36C-B16F58D65935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C03E89-981D-4FDB-902F-7D17216320B4}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3383,46 +3383,46 @@
       <c r="A34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="15">
         <v>80.782599659790606</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="15">
         <v>15.0640383536462</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="15">
         <v>1.7292361617548899</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="15">
         <v>0.3722511077283</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="17">
         <v>0.35348823868437002</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="18">
         <v>1</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="19">
         <v>2</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="20">
         <v>71.500734394283</v>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
         <v>42.439990494046803</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
         <v>64</v>
       </c>
@@ -4464,46 +4464,46 @@
       <c r="A57" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="23">
         <v>72.546424239849301</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="23">
         <v>14.7178739963511</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="23">
         <v>2.1653872360932298</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="23">
         <v>1.3456234733220001</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="25">
         <v>1.1452381166650401</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="26">
         <v>2</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N57" s="27">
         <v>4</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="28">
         <v>11.499661296247799</v>
       </c>
     </row>
@@ -5008,49 +5008,49 @@
         <v>17.5819635585536</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A69" s="66"/>
       <c r="B69" s="58" t="s">
         <v>234</v>
       </c>
       <c r="C69" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="76">
+        <v>24.090397487719802</v>
+      </c>
+      <c r="E69" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="76">
-        <v>25.921027310418999</v>
-      </c>
-      <c r="E69" s="77" t="s">
-        <v>41</v>
-      </c>
       <c r="F69" s="76">
-        <v>6.3847402427753002</v>
+        <v>14.619692784347301</v>
       </c>
       <c r="G69" s="77" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H69" s="76">
-        <v>5.1411903330306004</v>
+        <v>11.5801701398626</v>
       </c>
       <c r="I69" s="77" t="s">
         <v>50</v>
       </c>
       <c r="J69" s="76">
-        <v>3.78357519560433</v>
+        <v>4.1696907037539201</v>
       </c>
       <c r="K69" s="77" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="L69" s="62">
-        <v>3.7642738536917499</v>
+        <v>3.5932885287644201</v>
       </c>
       <c r="M69" s="78">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N69" s="79">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O69" s="65">
-        <v>13.418753152565801</v>
+        <v>17.506043086661101</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5233,7 +5233,7 @@
         <v>32.443122353982901</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A74" s="66"/>
       <c r="B74" s="58" t="s">
         <v>238</v>
@@ -5377,40 +5377,40 @@
         <v>14</v>
       </c>
       <c r="D77" s="76">
-        <v>8.7548140486859705</v>
+        <v>8.7992257885579495</v>
       </c>
       <c r="E77" s="77" t="s">
         <v>55</v>
       </c>
       <c r="F77" s="76">
-        <v>8.1537757663553894</v>
+        <v>8.1404985602167805</v>
       </c>
       <c r="G77" s="77" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="76">
-        <v>7.9101834907674</v>
+        <v>7.9510615528571602</v>
       </c>
       <c r="I77" s="77" t="s">
         <v>40</v>
       </c>
       <c r="J77" s="76">
-        <v>7.2086375684185899</v>
+        <v>7.2458901978232397</v>
       </c>
       <c r="K77" s="77" t="s">
         <v>24</v>
       </c>
       <c r="L77" s="62">
-        <v>3.93181420286141</v>
+        <v>3.9353181066884799</v>
       </c>
       <c r="M77" s="78">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N77" s="79">
         <v>155</v>
       </c>
       <c r="O77" s="65">
-        <v>21.190808658086699</v>
+        <v>21.242089332629401</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -5512,40 +5512,40 @@
         <v>14</v>
       </c>
       <c r="D80" s="90">
-        <v>64.038874929093794</v>
+        <v>60.227803463938798</v>
       </c>
       <c r="E80" s="91" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="90">
-        <v>15.9443440060816</v>
+        <v>16.433241925800001</v>
       </c>
       <c r="G80" s="91" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="90">
-        <v>4.5421003547881504</v>
+        <v>6.1407310490149696</v>
       </c>
       <c r="I80" s="91" t="s">
         <v>58</v>
       </c>
       <c r="J80" s="90">
-        <v>1.7954882284857501</v>
+        <v>2.5369258847114402</v>
       </c>
       <c r="K80" s="91" t="s">
         <v>16</v>
       </c>
       <c r="L80" s="71">
-        <v>1.5162535855386301</v>
+        <v>2.2020450239324698</v>
       </c>
       <c r="M80" s="92">
         <v>2</v>
       </c>
       <c r="N80" s="93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O80" s="74">
-        <v>20.986150259167299</v>
+        <v>33.526005766710099</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -5602,40 +5602,40 @@
         <v>24</v>
       </c>
       <c r="D82" s="76">
-        <v>16.728570773123401</v>
+        <v>14.8017170270329</v>
       </c>
       <c r="E82" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="76">
+        <v>11.2828584212676</v>
+      </c>
+      <c r="G82" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F82" s="76">
-        <v>5.7125503216959101</v>
-      </c>
-      <c r="G82" s="77" t="s">
+      <c r="H82" s="76">
+        <v>5.04353611978381</v>
+      </c>
+      <c r="I82" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="76">
-        <v>3.70620528335151</v>
-      </c>
-      <c r="I82" s="77" t="s">
-        <v>14</v>
-      </c>
       <c r="J82" s="76">
-        <v>3.1671798601160299</v>
+        <v>3.2721601814228101</v>
       </c>
       <c r="K82" s="77" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L82" s="62">
-        <v>3.0016924839532999</v>
+        <v>2.7549592489316002</v>
       </c>
       <c r="M82" s="78">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N82" s="79">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="O82" s="65">
-        <v>21.601179840296101</v>
+        <v>19.7320523288654</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5653,7 +5653,7 @@
         <v>101</v>
       </c>
       <c r="F83" s="82">
-        <v>3.5473623283430502</v>
+        <v>3.54736232834306</v>
       </c>
       <c r="G83" s="83" t="s">
         <v>17</v>
@@ -5692,40 +5692,40 @@
         <v>24</v>
       </c>
       <c r="D84" s="90">
-        <v>39.2088697491929</v>
+        <v>34.784060841877398</v>
       </c>
       <c r="E84" s="91" t="s">
         <v>58</v>
       </c>
       <c r="F84" s="90">
-        <v>10.3723623998169</v>
+        <v>11.9606620016154</v>
       </c>
       <c r="G84" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H84" s="90">
+        <v>7.2994834981581604</v>
+      </c>
+      <c r="I84" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="90">
-        <v>5.2866858528057303</v>
-      </c>
-      <c r="I84" s="91" t="s">
+      <c r="J84" s="90">
+        <v>4.6325924372140799</v>
+      </c>
+      <c r="K84" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J84" s="90">
-        <v>3.7910492265308902</v>
-      </c>
-      <c r="K84" s="91" t="s">
-        <v>202</v>
-      </c>
       <c r="L84" s="71">
-        <v>3.7658575802200902</v>
+        <v>3.2853153801738002</v>
       </c>
       <c r="M84" s="92">
         <v>13</v>
       </c>
       <c r="N84" s="93">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O84" s="74">
-        <v>21.1779638950382</v>
+        <v>22.9083781831132</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5782,40 +5782,40 @@
         <v>14</v>
       </c>
       <c r="D86" s="76">
-        <v>28.6250922249178</v>
+        <v>29.861278244752199</v>
       </c>
       <c r="E86" s="77" t="s">
         <v>15</v>
       </c>
       <c r="F86" s="76">
-        <v>9.37798057030815</v>
+        <v>9.7829621950557808</v>
       </c>
       <c r="G86" s="77" t="s">
         <v>24</v>
       </c>
       <c r="H86" s="76">
-        <v>5.7924216683570897</v>
+        <v>5.7803555572153504</v>
       </c>
       <c r="I86" s="77" t="s">
         <v>17</v>
       </c>
       <c r="J86" s="76">
-        <v>4.3434424594322198</v>
+        <v>4.5298811259116203</v>
       </c>
       <c r="K86" s="77" t="s">
         <v>21</v>
       </c>
       <c r="L86" s="62">
-        <v>2.2935380173226201</v>
+        <v>2.3825716097725098</v>
       </c>
       <c r="M86" s="78">
         <v>39</v>
       </c>
       <c r="N86" s="79">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O86" s="65">
-        <v>19.234074729172399</v>
+        <v>18.7669602699739</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="63" x14ac:dyDescent="0.35">
@@ -5827,40 +5827,40 @@
         <v>227</v>
       </c>
       <c r="D87" s="76">
-        <v>4.5435903283809802</v>
+        <v>4.5301310423174703</v>
       </c>
       <c r="E87" s="77" t="s">
         <v>17</v>
       </c>
       <c r="F87" s="76">
-        <v>3.79362477390992</v>
+        <v>3.7815528217055001</v>
       </c>
       <c r="G87" s="77" t="s">
         <v>101</v>
       </c>
       <c r="H87" s="76">
-        <v>3.28594847565628</v>
+        <v>3.2759488699094099</v>
       </c>
       <c r="I87" s="77" t="s">
         <v>44</v>
       </c>
       <c r="J87" s="76">
-        <v>2.26719416355383</v>
+        <v>2.2602829397369999</v>
       </c>
       <c r="K87" s="77" t="s">
         <v>98</v>
       </c>
       <c r="L87" s="62">
-        <v>2.03714104132834</v>
+        <v>2.03088083613908</v>
       </c>
       <c r="M87" s="78">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N87" s="79">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O87" s="65">
-        <v>25.213955396743401</v>
+        <v>25.2110602250767</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -5917,43 +5917,43 @@
         <v>14</v>
       </c>
       <c r="D89" s="76">
-        <v>4.9936881678315901</v>
+        <v>5.0772541833198002</v>
       </c>
       <c r="E89" s="77" t="s">
         <v>230</v>
       </c>
       <c r="F89" s="76">
-        <v>4.9500787071319996</v>
+        <v>5.0285210040730597</v>
       </c>
       <c r="G89" s="77" t="s">
         <v>227</v>
       </c>
       <c r="H89" s="76">
-        <v>4.4467177611625797</v>
+        <v>4.5080372478328403</v>
       </c>
       <c r="I89" s="77" t="s">
         <v>101</v>
       </c>
       <c r="J89" s="76">
-        <v>3.9826909773910999</v>
+        <v>4.0465375173223999</v>
       </c>
       <c r="K89" s="77" t="s">
         <v>17</v>
       </c>
       <c r="L89" s="62">
-        <v>3.0692364436875401</v>
+        <v>3.0862565029659201</v>
       </c>
       <c r="M89" s="78">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N89" s="79">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O89" s="65">
-        <v>26.486034597540002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.250108762484999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="66"/>
       <c r="B90" s="80" t="s">
         <v>260</v>
@@ -5962,40 +5962,40 @@
         <v>174</v>
       </c>
       <c r="D90" s="82">
-        <v>4.8640538748611402</v>
+        <v>4.8754944183225897</v>
       </c>
       <c r="E90" s="83" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="82">
-        <v>4.1444104722641901</v>
+        <v>4.11237542451489</v>
       </c>
       <c r="G90" s="83" t="s">
         <v>17</v>
       </c>
       <c r="H90" s="82">
-        <v>3.8845080286263101</v>
+        <v>3.8709706038326699</v>
       </c>
       <c r="I90" s="83" t="s">
         <v>242</v>
       </c>
       <c r="J90" s="82">
-        <v>3.2026887954515502</v>
+        <v>3.1884531517132602</v>
       </c>
       <c r="K90" s="83" t="s">
         <v>101</v>
       </c>
       <c r="L90" s="84">
-        <v>2.9253126576282602</v>
+        <v>2.9040696388394198</v>
       </c>
       <c r="M90" s="85">
         <v>160</v>
       </c>
       <c r="N90" s="86">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O90" s="87">
-        <v>32.383493587139697</v>
+        <v>32.487236691912202</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -6133,7 +6133,7 @@
         <v>32.089359681950697</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A94" s="66"/>
       <c r="B94" s="58" t="s">
         <v>264</v>
@@ -6142,40 +6142,40 @@
         <v>101</v>
       </c>
       <c r="D94" s="76">
-        <v>20.112943401417098</v>
+        <v>20.839646717129199</v>
       </c>
       <c r="E94" s="77" t="s">
         <v>17</v>
       </c>
       <c r="F94" s="76">
-        <v>11.048155559571001</v>
+        <v>10.416035359019601</v>
       </c>
       <c r="G94" s="77" t="s">
         <v>24</v>
       </c>
       <c r="H94" s="76">
-        <v>5.8839667589593603</v>
+        <v>6.0453656223716097</v>
       </c>
       <c r="I94" s="77" t="s">
         <v>242</v>
       </c>
       <c r="J94" s="76">
-        <v>2.4593904362257999</v>
+        <v>2.5458232850254698</v>
       </c>
       <c r="K94" s="77" t="s">
         <v>230</v>
       </c>
       <c r="L94" s="62">
-        <v>1.9538692035379699</v>
+        <v>2.0194409004503902</v>
       </c>
       <c r="M94" s="78">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N94" s="79">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O94" s="65">
-        <v>117.52915593533599</v>
+        <v>119.542274839231</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -6277,31 +6277,31 @@
         <v>14</v>
       </c>
       <c r="D97" s="90">
-        <v>37.952816586674501</v>
+        <v>37.6798120026058</v>
       </c>
       <c r="E97" s="91" t="s">
         <v>24</v>
       </c>
       <c r="F97" s="90">
-        <v>15.7381263644226</v>
+        <v>15.9245021943686</v>
       </c>
       <c r="G97" s="91" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="90">
-        <v>5.7802889198311398</v>
+        <v>5.7391192110223797</v>
       </c>
       <c r="I97" s="91" t="s">
         <v>58</v>
       </c>
       <c r="J97" s="90">
-        <v>5.5222157001000296</v>
+        <v>5.4825955614224204</v>
       </c>
       <c r="K97" s="91" t="s">
         <v>50</v>
       </c>
       <c r="L97" s="71">
-        <v>2.9253505005400702</v>
+        <v>2.9043076855797798</v>
       </c>
       <c r="M97" s="92">
         <v>10</v>
@@ -6310,10 +6310,10 @@
         <v>47</v>
       </c>
       <c r="O97" s="74">
-        <v>19.850907550630101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19.900104646614501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="66"/>
       <c r="B98" s="80" t="s">
         <v>268</v>
@@ -6322,40 +6322,40 @@
         <v>14</v>
       </c>
       <c r="D98" s="82">
-        <v>25.436489371685099</v>
+        <v>24.938880541259699</v>
       </c>
       <c r="E98" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="82">
+        <v>4.3535616981501599</v>
+      </c>
+      <c r="G98" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="82">
-        <v>4.4205666303609101</v>
-      </c>
-      <c r="G98" s="83" t="s">
+      <c r="H98" s="82">
+        <v>4.3096249198562298</v>
+      </c>
+      <c r="I98" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="H98" s="82">
-        <v>3.7252520473663</v>
-      </c>
-      <c r="I98" s="83" t="s">
+      <c r="J98" s="82">
+        <v>3.6319101229669299</v>
+      </c>
+      <c r="K98" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J98" s="82">
-        <v>3.5684247481651998</v>
-      </c>
-      <c r="K98" s="83" t="s">
-        <v>118</v>
-      </c>
       <c r="L98" s="84">
-        <v>3.12021152842925</v>
+        <v>3.4817399999330898</v>
       </c>
       <c r="M98" s="85">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N98" s="86">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O98" s="87">
-        <v>21.334067301334301</v>
+        <v>21.218698603510401</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
@@ -6620,11 +6620,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4F532A6B-4214-4704-A467-881A45F1E9C4}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A142F564-3ED8-460A-93C7-1CE24B1C0D90}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{653ACD33-71FF-49CC-86BE-C160131074CA}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{7076DEB3-B94A-49E1-9D4C-CEAD86FF318E}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{7C681949-9DD5-4C85-8D82-6DBD602B75D0}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9DAF24BA-A74F-4CCE-8A9B-DD89DE911BD5}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{86B3FB83-77EA-48C4-87C9-887A878B2AEE}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{45C1F41A-C4D1-49A2-B024-F2D7C7DB33C5}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{CA0B0255-9B79-4F5D-813A-003D5D6BD156}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{027C5F8E-E971-492B-8C24-B1A3FCFEAD32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab18.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5755736A-9883-4D4D-A5CB-9343964D97A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{263BA36E-CEBD-4FF0-84F8-112E16462FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{575D784D-36F0-4B57-9B88-1B0966AE8679}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F12C174-B831-4E8C-8D01-DC589D462CB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C03E89-981D-4FDB-902F-7D17216320B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC692F61-4538-45C7-BC29-B758E2B133A4}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6620,11 +6620,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9DAF24BA-A74F-4CCE-8A9B-DD89DE911BD5}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{86B3FB83-77EA-48C4-87C9-887A878B2AEE}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{45C1F41A-C4D1-49A2-B024-F2D7C7DB33C5}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{CA0B0255-9B79-4F5D-813A-003D5D6BD156}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{027C5F8E-E971-492B-8C24-B1A3FCFEAD32}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8713004F-A2C4-43AC-9197-053FFEB773DD}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F32912A5-DB2B-4091-8711-D87F86A6C312}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D13A00AE-26F0-487D-87B5-FB77D1463B52}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{F72EC4B7-496F-44FC-8656-54BB6F6D45AF}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{DCDB41D8-2C4B-4EF2-B402-805835A3B4B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab18.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263BA36E-CEBD-4FF0-84F8-112E16462FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D072A55-8CED-436C-A143-F2E6263EEEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F12C174-B831-4E8C-8D01-DC589D462CB9}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F829B774-0E22-4E7C-B85A-5ADC8AC6181E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC692F61-4538-45C7-BC29-B758E2B133A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876AFB90-C19C-4065-99EB-F50A9CD96124}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3896,7 +3896,7 @@
         <v>42.439990494046803</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
         <v>64</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>32.443122353982901</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A74" s="66"/>
       <c r="B74" s="58" t="s">
         <v>238</v>
@@ -5953,7 +5953,7 @@
         <v>26.250108762484999</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="66"/>
       <c r="B90" s="80" t="s">
         <v>260</v>
@@ -6133,7 +6133,7 @@
         <v>32.089359681950697</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A94" s="66"/>
       <c r="B94" s="58" t="s">
         <v>264</v>
@@ -6620,11 +6620,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8713004F-A2C4-43AC-9197-053FFEB773DD}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F32912A5-DB2B-4091-8711-D87F86A6C312}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{D13A00AE-26F0-487D-87B5-FB77D1463B52}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{F72EC4B7-496F-44FC-8656-54BB6F6D45AF}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{DCDB41D8-2C4B-4EF2-B402-805835A3B4B4}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1B864FB1-3EFD-4120-AFBE-64D2A6BCE9B9}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B0B469DE-6FC7-4644-850F-D61DAA7143B7}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{FF16D876-147D-419B-BF57-34741C4CFA2D}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{FCD62D35-A83E-4D9D-8254-C3FF2A98E22A}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{02850123-8790-4C47-8B3F-79CBA356EC81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab18.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D072A55-8CED-436C-A143-F2E6263EEEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34CEC3EF-F26D-4244-BDDE-4E7A4D3ABDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F829B774-0E22-4E7C-B85A-5ADC8AC6181E}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{055C15B0-2A0E-47F2-8CA0-D8D6352DD31D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="280">
   <si>
     <t>Tableau 18 : Diversification des exportations</t>
   </si>
@@ -863,16 +863,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876AFB90-C19C-4065-99EB-F50A9CD96124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8A81E5-A904-42B0-B002-8C9FA44BCBBC}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6522,7 +6525,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C109" s="100"/>
       <c r="D109" s="100"/>
@@ -6539,7 +6542,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C110" s="100"/>
       <c r="D110" s="100"/>
@@ -6555,7 +6558,9 @@
       <c r="O110" s="102"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="C111" s="100"/>
       <c r="D111" s="100"/>
       <c r="E111" s="101"/>
@@ -6571,7 +6576,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C112" s="100"/>
       <c r="D112" s="100"/>
@@ -6588,7 +6593,7 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C113" s="100"/>
       <c r="D113" s="100"/>
@@ -6620,13 +6625,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1B864FB1-3EFD-4120-AFBE-64D2A6BCE9B9}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B0B469DE-6FC7-4644-850F-D61DAA7143B7}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{FF16D876-147D-419B-BF57-34741C4CFA2D}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{FCD62D35-A83E-4D9D-8254-C3FF2A98E22A}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{02850123-8790-4C47-8B3F-79CBA356EC81}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BA7CDE50-CA4D-40AA-A7B7-0B0D49E98DDC}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6619AA36-A49B-4586-8EEC-D9D033D50077}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{454C1CB1-026C-4B80-A7A5-F7C2DC928075}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{E3FC66F7-2BF5-4797-87A5-E8608BE828B0}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{0077A123-2C71-458D-98EF-8590D51B6500}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{990BBE7A-CBCA-4EE9-98C1-A03BDC161B52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab18.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34CEC3EF-F26D-4244-BDDE-4E7A4D3ABDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D34374E-9BA6-4AEA-8D3D-AF6ABAC86284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{055C15B0-2A0E-47F2-8CA0-D8D6352DD31D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{298B7B76-4448-4002-A291-317F6517399E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab18'!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="280">
   <si>
     <t>Tableau 18 : Diversification des exportations</t>
   </si>
@@ -398,6 +398,9 @@
     <t>Machinery for sorting, screening, separating, washing, crushing, grinding, mixing or kneading earth, stone, ores in solid form, shaping, moulding machinery for solid mineral fuels</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>ETH</t>
   </si>
   <si>
@@ -540,9 +543,6 @@
   </si>
   <si>
     <t>Ferrous waste and scrap; remelting scrap ingots of iron or steel</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>MRT</t>
@@ -1838,29 +1838,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8A81E5-A904-42B0-B002-8C9FA44BCBBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E861E908-6853-41CC-8CF9-BC93B02CF409}">
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" style="106" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7265625" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.453125" style="102" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="106" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1878,7 +1878,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -1969,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="O3" s="20">
-        <v>45.025733623187897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>44.983369354109797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -2016,10 +2016,10 @@
         <v>2</v>
       </c>
       <c r="O4" s="28">
-        <v>41.891955685351803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>41.960570590450502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
@@ -2063,10 +2063,10 @@
         <v>34</v>
       </c>
       <c r="O5" s="28">
-        <v>45.040888826404696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+        <v>45.037318436425998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>31</v>
       </c>
@@ -2110,10 +2110,10 @@
         <v>16</v>
       </c>
       <c r="O6" s="28">
-        <v>44.345664757404002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>44.4455922444536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
@@ -2157,10 +2157,10 @@
         <v>12</v>
       </c>
       <c r="O7" s="28">
-        <v>10.3727474306876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>10.3622362790511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
@@ -2204,10 +2204,10 @@
         <v>26</v>
       </c>
       <c r="O8" s="28">
-        <v>40.5940552908055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+        <v>39.8111704972711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>47</v>
       </c>
@@ -2251,10 +2251,10 @@
         <v>18</v>
       </c>
       <c r="O9" s="28">
-        <v>34.331492876482699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>33.957445076742701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>52</v>
       </c>
@@ -2298,10 +2298,10 @@
         <v>147</v>
       </c>
       <c r="O10" s="28">
-        <v>31.193814062404901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>31.111990655453798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>56</v>
       </c>
@@ -2345,10 +2345,10 @@
         <v>20</v>
       </c>
       <c r="O11" s="28">
-        <v>52.951540056276201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+        <v>52.950702242066598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>60</v>
       </c>
@@ -2392,10 +2392,10 @@
         <v>10</v>
       </c>
       <c r="O12" s="28">
-        <v>18.279911392911501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.268420102739999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>64</v>
       </c>
@@ -2439,10 +2439,10 @@
         <v>124</v>
       </c>
       <c r="O13" s="39">
-        <v>34.5944064075684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>34.502451308764499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>66</v>
       </c>
@@ -2486,10 +2486,10 @@
         <v>12</v>
       </c>
       <c r="O14" s="28">
-        <v>8.1227926531516701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>8.12233191914566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
@@ -2533,10 +2533,10 @@
         <v>9</v>
       </c>
       <c r="O15" s="28">
-        <v>16.4416262007732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+        <v>16.441806010866902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
@@ -2580,10 +2580,10 @@
         <v>4</v>
       </c>
       <c r="O16" s="28">
-        <v>13.688864979750299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>13.692146062069099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>78</v>
       </c>
@@ -2627,10 +2627,10 @@
         <v>2</v>
       </c>
       <c r="O17" s="20">
-        <v>34.529957898005001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>34.559806862069998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>83</v>
       </c>
@@ -2674,10 +2674,10 @@
         <v>8</v>
       </c>
       <c r="O18" s="20">
-        <v>72.891877155626503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>66.052201281445903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>86</v>
       </c>
@@ -2721,10 +2721,10 @@
         <v>5</v>
       </c>
       <c r="O19" s="28">
-        <v>39.553458604219401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+        <v>38.993071731061399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>89</v>
       </c>
@@ -2768,10 +2768,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="20">
-        <v>44.622731725259897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>44.624162319167297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>93</v>
       </c>
@@ -2815,10 +2815,10 @@
         <v>4</v>
       </c>
       <c r="O21" s="20">
-        <v>39.862196110500797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>39.888258732818699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
@@ -2862,10 +2862,10 @@
         <v>11</v>
       </c>
       <c r="O22" s="28">
-        <v>15.309847129227901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>15.3632638728612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>64</v>
       </c>
@@ -2909,10 +2909,10 @@
         <v>12</v>
       </c>
       <c r="O23" s="39">
-        <v>33.056170556374198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>32.666933938057603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>103</v>
       </c>
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="O24" s="28">
-        <v>11.516798569849399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>11.5195131831656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>110</v>
       </c>
@@ -3003,10 +3003,10 @@
         <v>13</v>
       </c>
       <c r="O25" s="28">
-        <v>149.939648857761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+        <v>149.33312334600899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>115</v>
       </c>
@@ -3049,16 +3049,16 @@
       <c r="N26" s="27">
         <v>3</v>
       </c>
-      <c r="O26" s="28">
-        <v>38.753396744285503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+      <c r="O26" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>68</v>
@@ -3079,13 +3079,13 @@
         <v>7.6805306351340503</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J27" s="23">
         <v>6.15652892084805</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L27" s="25">
         <v>5.3498978492678804</v>
@@ -3097,15 +3097,15 @@
         <v>32</v>
       </c>
       <c r="O27" s="28">
-        <v>8.5738254450976097</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>8.5738621328594995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>41</v>
@@ -3114,7 +3114,7 @@
         <v>16.7591008224008</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="23">
         <v>10.6892527321362</v>
@@ -3132,7 +3132,7 @@
         <v>3.4684658763696401</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L28" s="25">
         <v>2.72175554785415</v>
@@ -3144,15 +3144,15 @@
         <v>132</v>
       </c>
       <c r="O28" s="28">
-        <v>10.7162886540966</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>10.7623285479165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>109</v>
@@ -3161,13 +3161,13 @@
         <v>19.265999579784701</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" s="23">
         <v>15.383737540612</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H29" s="23">
         <v>4.5229526918749503</v>
@@ -3179,7 +3179,7 @@
         <v>4.44954783315639</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L29" s="25">
         <v>3.9246312843055602</v>
@@ -3191,18 +3191,18 @@
         <v>42</v>
       </c>
       <c r="O29" s="28">
-        <v>23.032116454966602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+        <v>23.0317273620702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D30" s="23">
         <v>10.6513294825244</v>
@@ -3220,7 +3220,7 @@
         <v>4.8486545890235204</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J30" s="23">
         <v>3.9600288933905201</v>
@@ -3238,15 +3238,15 @@
         <v>112</v>
       </c>
       <c r="O30" s="28">
-        <v>27.8335084103309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>27.838981225178699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>24</v>
@@ -3285,30 +3285,30 @@
         <v>49</v>
       </c>
       <c r="O31" s="28">
-        <v>19.064319772189801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>19.088529634091898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D32" s="23">
         <v>63.697096352938303</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F32" s="23">
         <v>13.3656795831099</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H32" s="23">
         <v>11.4268540977541</v>
@@ -3320,7 +3320,7 @@
         <v>5.1561098231787801</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L32" s="25">
         <v>0.75101744629212996</v>
@@ -3332,15 +3332,15 @@
         <v>4</v>
       </c>
       <c r="O32" s="28">
-        <v>120.178646783612</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>116.66493004945001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>113</v>
@@ -3379,15 +3379,15 @@
         <v>10</v>
       </c>
       <c r="O33" s="28">
-        <v>17.178050909260499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>13.3178343668908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>14</v>
@@ -3402,19 +3402,19 @@
         <v>15.0640383536462</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H34" s="15">
         <v>1.7292361617548899</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J34" s="15">
         <v>0.3722511077283</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L34" s="17">
         <v>0.35348823868437002</v>
@@ -3426,15 +3426,15 @@
         <v>2</v>
       </c>
       <c r="O34" s="20">
-        <v>71.500734394283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>71.501738670582995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>24</v>
@@ -3443,7 +3443,7 @@
         <v>52.336665003606797</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F35" s="23">
         <v>8.96521440445553</v>
@@ -3473,15 +3473,15 @@
         <v>11</v>
       </c>
       <c r="O35" s="28">
-        <v>17.0172856140736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>16.993018195085298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>24</v>
@@ -3502,7 +3502,7 @@
         <v>3.8743425797647202</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J36" s="23">
         <v>3.67880094015546</v>
@@ -3520,15 +3520,15 @@
         <v>59</v>
       </c>
       <c r="O36" s="28">
-        <v>14.1751950000597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>14.175209086724699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>24</v>
@@ -3555,7 +3555,7 @@
         <v>1.6666171768523199</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L37" s="25">
         <v>1.3504449454933001</v>
@@ -3567,15 +3567,15 @@
         <v>20</v>
       </c>
       <c r="O37" s="28">
-        <v>14.385308686659201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+        <v>14.4746086054706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>24</v>
@@ -3590,7 +3590,7 @@
         <v>5.54330607035598</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H38" s="34">
         <v>3.5120386738754399</v>
@@ -3602,7 +3602,7 @@
         <v>3.3529215872806901</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L38" s="36">
         <v>2.5953542849604299</v>
@@ -3614,15 +3614,15 @@
         <v>138</v>
       </c>
       <c r="O38" s="39">
-        <v>14.6283437020997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>14.441826690928799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>15</v>
@@ -3643,13 +3643,13 @@
         <v>17.6365372496651</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J39" s="15">
         <v>3.4103410458137899</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L39" s="17">
         <v>2.0174896545399901</v>
@@ -3661,15 +3661,15 @@
         <v>4</v>
       </c>
       <c r="O39" s="20">
-        <v>25.605455733878198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>25.605436625959499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>17</v>
@@ -3690,7 +3690,7 @@
         <v>7.7772593015204903</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J40" s="23">
         <v>3.79584197019433</v>
@@ -3708,15 +3708,15 @@
         <v>151</v>
       </c>
       <c r="O40" s="28">
-        <v>10.5531691004687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>10.5531774155445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>14</v>
@@ -3737,7 +3737,7 @@
         <v>1.9184696993796599</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J41" s="15">
         <v>1.08493380629693</v>
@@ -3755,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>169</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>8.4452201841582308</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J42" s="15">
         <v>8.2827895538348901</v>
@@ -3802,10 +3802,10 @@
         <v>6</v>
       </c>
       <c r="O42" s="20">
-        <v>33.2069791354443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>33.205487902222501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>172</v>
       </c>
@@ -3849,10 +3849,10 @@
         <v>87</v>
       </c>
       <c r="O43" s="28">
-        <v>32.985864623713397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33.229757648561801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>177</v>
       </c>
@@ -3896,10 +3896,10 @@
         <v>144</v>
       </c>
       <c r="O44" s="28">
-        <v>42.439990494046803</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>42.4403651619307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>64</v>
       </c>
@@ -3943,10 +3943,10 @@
         <v>132</v>
       </c>
       <c r="O45" s="39">
-        <v>18.783189127890399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>18.816926072228799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>181</v>
       </c>
@@ -3990,10 +3990,10 @@
         <v>12</v>
       </c>
       <c r="O46" s="28">
-        <v>23.482995586326499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>23.4835027649777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>185</v>
       </c>
@@ -4037,10 +4037,10 @@
         <v>2</v>
       </c>
       <c r="O47" s="28">
-        <v>29.4574859455408</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>29.457614399860699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>187</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>188</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" s="15">
         <v>42.665305536356001</v>
@@ -4066,7 +4066,7 @@
         <v>7.99200075253904</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J48" s="15">
         <v>6.1115522718516297</v>
@@ -4084,10 +4084,10 @@
         <v>13</v>
       </c>
       <c r="O48" s="20">
-        <v>28.9751184139811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>29.639481175743299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>192</v>
       </c>
@@ -4131,10 +4131,10 @@
         <v>13</v>
       </c>
       <c r="O49" s="28">
-        <v>22.632864580266698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>22.589718820485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>196</v>
       </c>
@@ -4178,10 +4178,10 @@
         <v>21</v>
       </c>
       <c r="O50" s="28">
-        <v>9.1788319187919996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>9.1314405670974601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>198</v>
       </c>
@@ -4225,10 +4225,10 @@
         <v>13</v>
       </c>
       <c r="O51" s="28">
-        <v>30.1948244523951</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>30.027140660352998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>200</v>
       </c>
@@ -4272,10 +4272,10 @@
         <v>2</v>
       </c>
       <c r="O52" s="28">
-        <v>63.545103442808397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>64.805956810950704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>204</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>11.3822305404628</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H53" s="23">
         <v>3.29045034852426</v>
@@ -4319,10 +4319,10 @@
         <v>2</v>
       </c>
       <c r="O53" s="28">
-        <v>19.4231713892963</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>19.428377144420999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>206</v>
       </c>
@@ -4366,10 +4366,10 @@
         <v>5</v>
       </c>
       <c r="O54" s="28">
-        <v>32.0125450422886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>32.0112993234793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>210</v>
       </c>
@@ -4413,10 +4413,10 @@
         <v>1</v>
       </c>
       <c r="O55" s="28">
-        <v>27.3971836887204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>27.222714232390601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>212</v>
       </c>
@@ -4460,10 +4460,10 @@
         <v>4</v>
       </c>
       <c r="O56" s="28">
-        <v>15.496881969881301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>15.4966004375969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>215</v>
       </c>
@@ -4507,10 +4507,10 @@
         <v>4</v>
       </c>
       <c r="O57" s="28">
-        <v>11.499661296247799</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>11.4996686864061</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>217</v>
       </c>
@@ -4536,13 +4536,13 @@
         <v>9.0091370187943998</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J58" s="23">
         <v>5.78581309154937</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L58" s="25">
         <v>5.4293242003041602</v>
@@ -4554,10 +4554,10 @@
         <v>56</v>
       </c>
       <c r="O58" s="28">
-        <v>23.373588354331201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>23.420772400342599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>219</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>220</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59" s="23">
         <v>24.2060934269036</v>
@@ -4601,10 +4601,10 @@
         <v>12</v>
       </c>
       <c r="O59" s="28">
-        <v>26.864112802491</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.863274727982201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>221</v>
       </c>
@@ -4648,10 +4648,10 @@
         <v>25</v>
       </c>
       <c r="O60" s="28">
-        <v>22.5931424248264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22.8434868611367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
       <c r="B61" s="41" t="s">
         <v>224</v>
@@ -4693,10 +4693,10 @@
         <v>21</v>
       </c>
       <c r="O61" s="48">
-        <v>17.668744907026699</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17.674116448833999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="49"/>
       <c r="B62" s="50" t="s">
         <v>225</v>
@@ -4738,10 +4738,10 @@
         <v>162</v>
       </c>
       <c r="O62" s="57">
-        <v>21.428809165303299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21.380587503797599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="49"/>
       <c r="B63" s="58" t="s">
         <v>226</v>
@@ -4783,10 +4783,10 @@
         <v>389</v>
       </c>
       <c r="O63" s="65">
-        <v>29.074255902749801</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>29.0241195092248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A64" s="66"/>
       <c r="B64" s="67" t="s">
         <v>228</v>
@@ -4828,10 +4828,10 @@
         <v>222</v>
       </c>
       <c r="O64" s="74">
-        <v>27.112143836084599</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+        <v>26.8460489152917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A65" s="66"/>
       <c r="B65" s="58" t="s">
         <v>229</v>
@@ -4873,10 +4873,10 @@
         <v>350</v>
       </c>
       <c r="O65" s="65">
-        <v>24.0965283884358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>24.090908250574699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="66"/>
       <c r="B66" s="80" t="s">
         <v>231</v>
@@ -4918,10 +4918,10 @@
         <v>391</v>
       </c>
       <c r="O66" s="87">
-        <v>28.688994384145701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>28.639168740902601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A67" s="66"/>
       <c r="B67" s="88" t="s">
         <v>232</v>
@@ -4963,10 +4963,10 @@
         <v>180</v>
       </c>
       <c r="O67" s="74">
-        <v>15.827399720297199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>15.7247606941299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A68" s="66"/>
       <c r="B68" s="58" t="s">
         <v>233</v>
@@ -5008,10 +5008,10 @@
         <v>129</v>
       </c>
       <c r="O68" s="65">
-        <v>17.5819635585536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>17.539831637828499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A69" s="66"/>
       <c r="B69" s="58" t="s">
         <v>234</v>
@@ -5053,10 +5053,10 @@
         <v>78</v>
       </c>
       <c r="O69" s="65">
-        <v>17.506043086661101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>17.4506879069239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
       <c r="B70" s="58" t="s">
         <v>235</v>
@@ -5098,10 +5098,10 @@
         <v>10</v>
       </c>
       <c r="O70" s="65">
-        <v>36.685339214373897</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>36.434648860728501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A71" s="66"/>
       <c r="B71" s="58" t="s">
         <v>236</v>
@@ -5143,10 +5143,10 @@
         <v>21</v>
       </c>
       <c r="O71" s="65">
-        <v>17.668744907026699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>17.674116448833999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A72" s="66"/>
       <c r="B72" s="58" t="s">
         <v>237</v>
@@ -5170,7 +5170,7 @@
         <v>5.4361515098246</v>
       </c>
       <c r="I72" s="77" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J72" s="76">
         <v>4.5841503511230899</v>
@@ -5188,10 +5188,10 @@
         <v>99</v>
       </c>
       <c r="O72" s="65">
-        <v>13.3876320778232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>13.1362761632726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A73" s="66"/>
       <c r="B73" s="58" t="s">
         <v>238</v>
@@ -5233,10 +5233,10 @@
         <v>133</v>
       </c>
       <c r="O73" s="65">
-        <v>32.443122353982901</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+        <v>32.338526904563103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A74" s="66"/>
       <c r="B74" s="58" t="s">
         <v>238</v>
@@ -5278,10 +5278,10 @@
         <v>73</v>
       </c>
       <c r="O74" s="65">
-        <v>30.495426343310001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>30.575382782963299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="66"/>
       <c r="B75" s="80" t="s">
         <v>239</v>
@@ -5323,10 +5323,10 @@
         <v>10</v>
       </c>
       <c r="O75" s="87">
-        <v>43.522693584562703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+        <v>43.3975442533836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A76" s="66"/>
       <c r="B76" s="88" t="s">
         <v>240</v>
@@ -5368,10 +5368,10 @@
         <v>249</v>
       </c>
       <c r="O76" s="74">
-        <v>52.997166297673402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>52.985083071879501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A77" s="66"/>
       <c r="B77" s="58" t="s">
         <v>241</v>
@@ -5413,10 +5413,10 @@
         <v>155</v>
       </c>
       <c r="O77" s="65">
-        <v>21.242089332629401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+        <v>21.219838907156699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A78" s="66"/>
       <c r="B78" s="58" t="s">
         <v>241</v>
@@ -5458,10 +5458,10 @@
         <v>394</v>
       </c>
       <c r="O78" s="65">
-        <v>50.405171963548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>50.201959459432601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="66"/>
       <c r="B79" s="80" t="s">
         <v>245</v>
@@ -5503,10 +5503,10 @@
         <v>370</v>
       </c>
       <c r="O79" s="87">
-        <v>30.026167846821199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>29.930302691805601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A80" s="66"/>
       <c r="B80" s="88" t="s">
         <v>246</v>
@@ -5548,10 +5548,10 @@
         <v>7</v>
       </c>
       <c r="O80" s="74">
-        <v>33.526005766710099</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>33.437073793099799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A81" s="66"/>
       <c r="B81" s="58" t="s">
         <v>247</v>
@@ -5593,10 +5593,10 @@
         <v>114</v>
       </c>
       <c r="O81" s="65">
-        <v>37.656844581745602</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>37.650932556709002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A82" s="66"/>
       <c r="B82" s="58" t="s">
         <v>249</v>
@@ -5638,10 +5638,10 @@
         <v>192</v>
       </c>
       <c r="O82" s="65">
-        <v>19.7320523288654</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>19.6853192705649</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="66"/>
       <c r="B83" s="80" t="s">
         <v>250</v>
@@ -5683,10 +5683,10 @@
         <v>398</v>
       </c>
       <c r="O83" s="87">
-        <v>28.295846675813898</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>28.2433343612032</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A84" s="66"/>
       <c r="B84" s="88" t="s">
         <v>251</v>
@@ -5728,10 +5728,10 @@
         <v>50</v>
       </c>
       <c r="O84" s="74">
-        <v>22.9083781831132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>22.672854361169701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A85" s="66"/>
       <c r="B85" s="58" t="s">
         <v>252</v>
@@ -5773,10 +5773,10 @@
         <v>68</v>
       </c>
       <c r="O85" s="65">
-        <v>12.080169759101199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>10.6337358712987</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A86" s="66"/>
       <c r="B86" s="58" t="s">
         <v>256</v>
@@ -5818,10 +5818,10 @@
         <v>142</v>
       </c>
       <c r="O86" s="65">
-        <v>18.7669602699739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+        <v>18.764616357292901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A87" s="66"/>
       <c r="B87" s="58" t="s">
         <v>257</v>
@@ -5863,10 +5863,10 @@
         <v>304</v>
       </c>
       <c r="O87" s="65">
-        <v>25.2110602250767</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>25.209937138664401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A88" s="66"/>
       <c r="B88" s="58" t="s">
         <v>258</v>
@@ -5908,10 +5908,10 @@
         <v>120</v>
       </c>
       <c r="O88" s="65">
-        <v>32.2537412319464</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+        <v>32.185209258026298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A89" s="66"/>
       <c r="B89" s="58" t="s">
         <v>259</v>
@@ -5953,10 +5953,10 @@
         <v>359</v>
       </c>
       <c r="O89" s="65">
-        <v>26.250108762484999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>26.197198144810798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="66"/>
       <c r="B90" s="80" t="s">
         <v>260</v>
@@ -5998,10 +5998,10 @@
         <v>358</v>
       </c>
       <c r="O90" s="87">
-        <v>32.487236691912202</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>32.422092984809197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A91" s="66"/>
       <c r="B91" s="58" t="s">
         <v>261</v>
@@ -6043,22 +6043,22 @@
         <v>55</v>
       </c>
       <c r="O91" s="65">
-        <v>25.363513289198099</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>25.195366261229101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A92" s="66"/>
       <c r="B92" s="58" t="s">
         <v>262</v>
       </c>
       <c r="C92" s="75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D92" s="76">
         <v>8.0796081599457796</v>
       </c>
       <c r="E92" s="77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F92" s="76">
         <v>7.2365416470499602</v>
@@ -6088,28 +6088,28 @@
         <v>94</v>
       </c>
       <c r="O92" s="65">
-        <v>15.369241775483101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>15.3101750673393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="51" x14ac:dyDescent="0.3">
       <c r="A93" s="66"/>
       <c r="B93" s="58" t="s">
         <v>263</v>
       </c>
       <c r="C93" s="75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D93" s="76">
         <v>29.077425864333101</v>
       </c>
       <c r="E93" s="77" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F93" s="76">
         <v>11.2247967810793</v>
       </c>
       <c r="G93" s="77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H93" s="76">
         <v>7.4169849363563403</v>
@@ -6133,10 +6133,10 @@
         <v>75</v>
       </c>
       <c r="O93" s="65">
-        <v>32.089359681950697</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="63" x14ac:dyDescent="0.35">
+        <v>32.281796600955701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A94" s="66"/>
       <c r="B94" s="58" t="s">
         <v>264</v>
@@ -6178,10 +6178,10 @@
         <v>133</v>
       </c>
       <c r="O94" s="65">
-        <v>119.542274839231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>119.611789619783</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A95" s="66"/>
       <c r="B95" s="58" t="s">
         <v>265</v>
@@ -6223,10 +6223,10 @@
         <v>43</v>
       </c>
       <c r="O95" s="65">
-        <v>20.347630778781198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+        <v>20.3560475644985</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="66"/>
       <c r="B96" s="58" t="s">
         <v>266</v>
@@ -6268,10 +6268,10 @@
         <v>108</v>
       </c>
       <c r="O96" s="65">
-        <v>31.3023002992424</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>31.229914599945701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A97" s="66"/>
       <c r="B97" s="88" t="s">
         <v>267</v>
@@ -6313,10 +6313,10 @@
         <v>47</v>
       </c>
       <c r="O97" s="74">
-        <v>19.900104646614501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18.551904407748001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="66"/>
       <c r="B98" s="80" t="s">
         <v>268</v>
@@ -6334,13 +6334,13 @@
         <v>4.3535616981501599</v>
       </c>
       <c r="G98" s="83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H98" s="82">
         <v>4.3096249198562298</v>
       </c>
       <c r="I98" s="83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J98" s="82">
         <v>3.6319101229669299</v>
@@ -6358,10 +6358,10 @@
         <v>131</v>
       </c>
       <c r="O98" s="87">
-        <v>21.218698603510401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+        <v>19.257656382611401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="94"/>
       <c r="B99" s="95"/>
       <c r="C99" s="96"/>
@@ -6378,7 +6378,7 @@
       <c r="N99" s="99"/>
       <c r="O99" s="98"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>269</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="N100" s="103"/>
       <c r="O100" s="102"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>270</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="N101" s="103"/>
       <c r="O101" s="102"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>271</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="N102" s="103"/>
       <c r="O102" s="102"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>272</v>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="N103" s="103"/>
       <c r="O103" s="102"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>273</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="N104" s="103"/>
       <c r="O104" s="102"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C105" s="100"/>
       <c r="D105" s="100"/>
       <c r="E105" s="101"/>
@@ -6477,7 +6477,7 @@
       <c r="N105" s="103"/>
       <c r="O105" s="102"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C106" s="100"/>
       <c r="D106" s="100"/>
       <c r="E106" s="101"/>
@@ -6491,7 +6491,7 @@
       <c r="N106" s="103"/>
       <c r="O106" s="102"/>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="104" t="s">
         <v>274</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="N107" s="103"/>
       <c r="O107" s="102"/>
     </row>
-    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="104"/>
       <c r="C108" s="100"/>
       <c r="D108" s="100"/>
@@ -6523,7 +6523,7 @@
       <c r="N108" s="103"/>
       <c r="O108" s="102"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>277</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="N109" s="103"/>
       <c r="O109" s="102"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>278</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="N110" s="103"/>
       <c r="O110" s="102"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>279</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="N111" s="103"/>
       <c r="O111" s="102"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>275</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="N112" s="103"/>
       <c r="O112" s="102"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>276</v>
       </c>
@@ -6608,7 +6608,7 @@
       <c r="N113" s="103"/>
       <c r="O113" s="102"/>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="100"/>
       <c r="D114" s="100"/>
@@ -6625,12 +6625,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BA7CDE50-CA4D-40AA-A7B7-0B0D49E98DDC}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6619AA36-A49B-4586-8EEC-D9D033D50077}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{454C1CB1-026C-4B80-A7A5-F7C2DC928075}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{E3FC66F7-2BF5-4797-87A5-E8608BE828B0}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{0077A123-2C71-458D-98EF-8590D51B6500}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{990BBE7A-CBCA-4EE9-98C1-A03BDC161B52}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C9B33163-8DE6-4500-BACA-0774F259965C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{25C74E82-D293-40C6-80E1-2905AA4B064B}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{137BB0A3-5A00-4367-B693-FCC4F838A7A4}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{1DB2B098-577E-437C-92CA-05068F43DF83}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{8C7D8C5C-7E11-44A3-A345-17806CCE0D90}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{478E4172-F478-4689-86A2-AF555648B9F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
